--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1363963.99397213</v>
+        <v>1468143.628423202</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283198</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>190.2651610286893</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>201.6622187863182</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>56.1268701563511</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>144.7268717888062</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>320.4865678544368</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>178.7060423383819</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>127.0598196324653</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4776401666613242</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>1.19042111330124</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>79.41818244097749</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039625</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>48.96769364758799</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.16281301712667</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000794</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>20.43112068612708</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272928</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>40.37234576591469</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>217.0479268348183</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>83.06560892427717</v>
       </c>
       <c r="E22" t="n">
-        <v>28.75188085812118</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2324,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>32.27552175739914</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>40.53421095546963</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>80.07147829118396</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>125.4250331806701</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>41.55695577160704</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>212.4076860934775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3193,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>18.70843787976815</v>
       </c>
       <c r="F34" t="n">
-        <v>18.7084378797738</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3424,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042091</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>87.21471514852985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>172.026033500079</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>3.475606507923894</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3023.128121794156</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2769.597645067992</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>2438.534757724422</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W2" t="n">
-        <v>2438.534757724422</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X2" t="n">
-        <v>2438.534757724422</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.39542574861</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,37 +4424,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.8175152271517</v>
+        <v>459.8449442241098</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8175152271517</v>
+        <v>290.9087612962029</v>
       </c>
       <c r="D4" t="n">
-        <v>212.700875814816</v>
+        <v>290.9087612962029</v>
       </c>
       <c r="E4" t="n">
-        <v>212.700875814816</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>212.700875814816</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8175152271517</v>
+        <v>459.8449442241098</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2283.102991989293</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C5" t="n">
-        <v>1914.140475048881</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="D5" t="n">
-        <v>1555.874776442131</v>
+        <v>1500.866776612723</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1115.078524014479</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>704.0926192248717</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>289.0201690698681</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,7 +4567,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4583,7 +4585,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4604,13 +4606,13 @@
         <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989293</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y5" t="n">
-        <v>2283.102991989293</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>775.7875500159902</v>
+        <v>363.7915515140957</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>194.8553685861887</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>194.8553685861887</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>194.8553685861887</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>194.8553685861887</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>194.8553685861887</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1836.981626031211</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1836.981626031211</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1547.878759156855</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.194270950968</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1003.777100914008</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>775.7875500159902</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>775.7875500159902</v>
+        <v>363.7915515140957</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3324.403376040179</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3324.403376040179</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3070.872899314016</v>
       </c>
       <c r="V8" t="n">
-        <v>3135.094766832249</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="W8" t="n">
-        <v>2782.326111562134</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="X8" t="n">
-        <v>2782.326111562134</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1374.549274426628</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1119.864786220741</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>830.44761618378</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>602.4580652857627</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>381.6654861422326</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,34 +5029,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5063,25 +5065,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>94.56320294380259</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>244.2098454714573</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>244.2098454714573</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872161</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>631.7012443408905</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408905</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408905</v>
@@ -5194,7 +5196,7 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,16 +5363,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400667</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400667</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277309</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>989.3306680894883</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>820.3944851615814</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1170.979132919728</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5768,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5777,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>840.8417932021782</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C22" t="n">
-        <v>2757.723669558405</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D22" t="n">
-        <v>2757.723669558405</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,37 +6004,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,22 +6062,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
         <v>2001.151557821488</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098192</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>814.4194208819123</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277359</v>
+        <v>664.3027814695765</v>
       </c>
       <c r="E25" t="n">
-        <v>363.7369613277359</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>216.8470138298256</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478291</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924454</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718567</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681606</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783589</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640059</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>641.8461362382112</v>
+        <v>2939.372134388644</v>
       </c>
       <c r="C28" t="n">
-        <v>472.9099533103043</v>
+        <v>2939.372134388644</v>
       </c>
       <c r="D28" t="n">
-        <v>322.7933138979686</v>
+        <v>2789.255494976308</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>2789.255494976308</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>2642.365547478398</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V28" t="n">
-        <v>1561.693901146959</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W28" t="n">
-        <v>1272.276731109998</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X28" t="n">
-        <v>1044.287180211981</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y28" t="n">
-        <v>823.4946010684509</v>
+        <v>2939.372134388644</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6482,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,22 +6536,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3173.601046153952</v>
+        <v>763.7541388327597</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>594.8179559048529</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>444.7013164925171</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603197</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.286391947395</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741508</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1394.184733704547</v>
       </c>
       <c r="X31" t="n">
-        <v>3173.601046153952</v>
+        <v>1166.19518280653</v>
       </c>
       <c r="Y31" t="n">
-        <v>3173.601046153952</v>
+        <v>945.4026036629995</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6716,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E34" t="n">
-        <v>2438.670847218162</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,46 +6931,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="38">
@@ -7160,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4517.069482196493</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>4517.069482196493</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>4262.384993990607</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953646</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>866.4638174991042</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>697.5276345711973</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2269.002343845332</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U46" t="n">
-        <v>2040.996070613739</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V46" t="n">
-        <v>1786.311582407852</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W46" t="n">
-        <v>1496.894412370891</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X46" t="n">
-        <v>1268.904861472874</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>1048.112282329344</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -9644,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116.6691671648106</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891647</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>126.0028419604421</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>8.661728554218882</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393518</v>
       </c>
       <c r="E22" t="n">
-        <v>117.682081788448</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>114.15844088917</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>124.9899273367992</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>85.45266000108488</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>126.7126101431579</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>104.8770068749621</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>13.30196929555964</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>127.725524766801</v>
       </c>
       <c r="F34" t="n">
-        <v>126.7126101431574</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>45.37941682720927</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.7088678813203</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>934650.9824675407</v>
+        <v>934650.9824675408</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214788</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214788</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214785</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214785</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214788</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062536</v>
@@ -26329,31 +26331,31 @@
         <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815721</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26436,7 +26438,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26445,7 +26447,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1014491.591111966</v>
+        <v>-1014491.591111965</v>
       </c>
       <c r="C6" t="n">
-        <v>314253.1546156266</v>
+        <v>314253.1546156262</v>
       </c>
       <c r="D6" t="n">
-        <v>314253.1546156266</v>
+        <v>314253.1546156267</v>
       </c>
       <c r="E6" t="n">
-        <v>66154.65695818544</v>
+        <v>66154.65695818524</v>
       </c>
       <c r="F6" t="n">
-        <v>391567.1187655409</v>
+        <v>391567.1187655408</v>
       </c>
       <c r="G6" t="n">
         <v>391567.1187655408</v>
       </c>
       <c r="H6" t="n">
-        <v>391567.1187655407</v>
+        <v>391567.118765541</v>
       </c>
       <c r="I6" t="n">
-        <v>391567.1187655407</v>
+        <v>391567.1187655405</v>
       </c>
       <c r="J6" t="n">
         <v>174035.9163682633</v>
@@ -26549,19 +26551,19 @@
         <v>391567.1187655408</v>
       </c>
       <c r="L6" t="n">
+        <v>391567.1187655408</v>
+      </c>
+      <c r="M6" t="n">
+        <v>306512.0908300288</v>
+      </c>
+      <c r="N6" t="n">
+        <v>391567.1187655409</v>
+      </c>
+      <c r="O6" t="n">
         <v>391567.1187655407</v>
       </c>
-      <c r="M6" t="n">
-        <v>306512.0908300291</v>
-      </c>
-      <c r="N6" t="n">
-        <v>391567.1187655408</v>
-      </c>
-      <c r="O6" t="n">
-        <v>391567.1187655409</v>
-      </c>
       <c r="P6" t="n">
-        <v>391567.1187655408</v>
+        <v>391567.1187655407</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6528091109308</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>168.0688818921509</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>90.30709249021808</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>21.298936470222</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>61.44380221782501</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>115.9017220489386</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>17.6951952818555</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.2913851647806</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>107.9973406748746</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>248.3340760291574</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944184</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>237.2441445580249</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28327,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28536,7 +28538,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28801,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28989,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29050,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29217,7 +29219,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-3.173620932428064e-12</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29524,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29703,7 +29705,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-3.173620932428064e-12</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29755,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29949,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-2.796559587318037e-12</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>100.2764607028593</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,19 +31846,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>211.7351844430261</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,7 +31867,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>518.439455159358</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>151.9914336104071</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270672</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>193.1175412796309</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>577.7447198439381</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>577.7447198439381</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>407.217739120397</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>407.217739120397</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7540807028593151</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>73.18080466315196</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>376.3054212373396</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>138.9023428740572</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>20.64972152707382</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.1905571410457</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010405</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326294864</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>61.77582919629761</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>439.190340064064</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899027</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.402257299894</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>439.1903400640639</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>265.0837051983787</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>265.0837051983787</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1468143.628423202</v>
+        <v>1464131.01840921</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283198</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>324.5143282092424</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>201.6622187863182</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247588</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>56.1268701563511</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>374.1747265925666</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>178.7060423383819</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>127.0598196324653</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>217.091419992848</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>94.81275980261485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.19042111330124</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>54.26003672910081</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>48.96769364758799</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>217.0479268348183</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892427717</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>63.841556412593</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>32.27552175739914</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>80.07147829118396</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2958,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>41.55695577160704</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>18.70843787976815</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>178.2642147042091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1918.208919851715</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1918.208919851715</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1559.943221244965</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.60582160917</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2304.808759915837</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927764</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>459.8449442241098</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C4" t="n">
-        <v>290.9087612962029</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D4" t="n">
-        <v>290.9087612962029</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915318</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484844</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610487</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046005</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W4" t="n">
-        <v>680.6375233676399</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X4" t="n">
-        <v>680.6375233676399</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y4" t="n">
-        <v>459.8449442241098</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1859.132475219474</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C5" t="n">
-        <v>1859.132475219474</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="D5" t="n">
-        <v>1500.866776612723</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="E5" t="n">
-        <v>1115.078524014479</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>704.0926192248717</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>289.0201690698681</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259407</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283596</v>
+        <v>2365.667596818513</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.7915515140957</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>194.8553685861887</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>194.8553685861887</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>194.8553685861887</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>194.8553685861887</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>194.8553685861887</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556431</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X7" t="n">
-        <v>584.5841306576258</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y7" t="n">
-        <v>363.7915515140957</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3324.403376040179</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3324.403376040179</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3070.872899314016</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2739.810011970445</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2739.810011970445</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.6654861422326</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>435.9130184635575</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>289.0230709656471</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>121.3202343403661</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>121.3202343403661</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1374.549274426628</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1119.864786220741</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>830.44761618378</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>602.4580652857627</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>381.6654861422326</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,55 +5029,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186992</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,19 +5290,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1720.348534373476</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5746,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021782</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400667</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121598</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832658</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487563</v>
+        <v>2382.47666296148</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510504</v>
+        <v>2162.875197984421</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854702</v>
+        <v>1873.799971328619</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648815</v>
+        <v>1619.115483122732</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611854</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138365</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703064</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098192</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819123</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695765</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.052681478291</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038296</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580256</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924454</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718567</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681606</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783589</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640059</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2939.372134388644</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>2939.372134388644</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>2789.255494976308</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2789.255494976308</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2642.365547478398</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305899</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.33114932884</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673038</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467151</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430191</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532174</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388644</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327597</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048529</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925171</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6633,40 +6633,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603197</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947395</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741508</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704547</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.19518280653</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036629995</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400667</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121598</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998241</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6879,31 +6879,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>554.5813165460164</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>385.6451336181095</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>736.2297813762561</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2269.002343845332</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2049.400878868273</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.580957587066223e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>8.661728554218882</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409393518</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>117.1847295890516</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>114.15844088917</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>85.45266000108488</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8770068749621</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>127.725524766801</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.32043864788571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>934650.9824675408</v>
+        <v>934650.9824675407</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>919018.9160214785</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214788</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>919018.9160214785</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651772</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.106165177</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062536</v>
@@ -26334,7 +26334,7 @@
         <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062536</v>
@@ -26349,10 +26349,10 @@
         <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062536</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815721</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815713</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1014491.591111965</v>
+        <v>-1014491.591111966</v>
       </c>
       <c r="C6" t="n">
-        <v>314253.1546156262</v>
+        <v>314253.154615627</v>
       </c>
       <c r="D6" t="n">
-        <v>314253.1546156267</v>
+        <v>314253.1546156268</v>
       </c>
       <c r="E6" t="n">
-        <v>66154.65695818524</v>
+        <v>65807.27770382845</v>
       </c>
       <c r="F6" t="n">
-        <v>391567.1187655408</v>
+        <v>391219.7395111837</v>
       </c>
       <c r="G6" t="n">
-        <v>391567.1187655408</v>
+        <v>391219.7395111838</v>
       </c>
       <c r="H6" t="n">
-        <v>391567.118765541</v>
+        <v>391219.7395111838</v>
       </c>
       <c r="I6" t="n">
-        <v>391567.1187655405</v>
+        <v>391219.7395111838</v>
       </c>
       <c r="J6" t="n">
-        <v>174035.9163682633</v>
+        <v>173688.5371139063</v>
       </c>
       <c r="K6" t="n">
-        <v>391567.1187655408</v>
+        <v>391219.7395111838</v>
       </c>
       <c r="L6" t="n">
-        <v>391567.1187655408</v>
+        <v>391219.7395111838</v>
       </c>
       <c r="M6" t="n">
-        <v>306512.0908300288</v>
+        <v>306164.711575672</v>
       </c>
       <c r="N6" t="n">
-        <v>391567.1187655409</v>
+        <v>391219.7395111837</v>
       </c>
       <c r="O6" t="n">
-        <v>391567.1187655407</v>
+        <v>391219.7395111838</v>
       </c>
       <c r="P6" t="n">
-        <v>391567.1187655407</v>
+        <v>391219.7395111838</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>57.41604186301942</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>168.0688818921509</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>90.30709249021808</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>7.755643479695152</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>115.9017220489386</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>17.6951952818555</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>69.12041821276489</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>270.4601319683927</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>107.9973406748746</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>42.09238368073731</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>237.2441445580249</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28991,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29219,7 +29219,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-3.173620932428064e-12</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29705,7 +29705,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-3.173620932428064e-12</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-2.796559587318037e-12</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>211.7351844430261</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270672</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34389,10 +34389,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>538.5853835133125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>73.18080466315196</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410457</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010405</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326294864</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899027</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060454</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.402257299894</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>396.4513495912942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1464131.01840921</v>
+        <v>1465891.548711995</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>237.1917225243</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>324.5143282092424</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="U4" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>374.1747265925666</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>15.38559094376137</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4.043187116398541</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>217.091419992848</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>94.81275980261485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>48.48304055307526</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>54.26003672910081</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135634</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2052,10 +2052,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>63.841556412593</v>
+        <v>139.4837053550539</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712588</v>
+        <v>100.58583229927</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>33.82891891787487</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1918.208919851715</v>
+        <v>1918.208919851714</v>
       </c>
       <c r="C2" t="n">
-        <v>1918.208919851715</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1559.943221244965</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176917</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X2" t="n">
-        <v>2304.808759915837</v>
+        <v>2304.808759915836</v>
       </c>
       <c r="Y2" t="n">
-        <v>2304.808759915837</v>
+        <v>2304.808759915836</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.4780323548191</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269122</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U4" t="n">
-        <v>1708.010285469454</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V4" t="n">
-        <v>1453.325797263567</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W4" t="n">
-        <v>1163.908627226606</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X4" t="n">
-        <v>935.919076328589</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y4" t="n">
-        <v>715.1264971850588</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.067756754391</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>1610.105239813979</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1610.105239813979</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,16 +4564,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4582,37 +4582,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3310.064820655875</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3104.087073040097</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3104.087073040097</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>3104.087073040097</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2751.318417769983</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794324</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.667596818513</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548191</v>
+        <v>684.4520072430311</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>515.5158243151242</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>365.3991849027884</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>217.4860913203953</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>70.59614382248495</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>70.59614382248495</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>70.59614382248495</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1708.010285469454</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1453.325797263567</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.908627226606</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X7" t="n">
-        <v>935.919076328589</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.1264971850588</v>
+        <v>866.1004720732708</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2071.975386180639</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1251.839541207229</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>866.0512886089846</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>455.065383819377</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4804,13 +4804,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4840,16 +4840,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180639</v>
+        <v>2365.667596818513</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738575</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459506</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>583.8261120459506</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>435.9130184635575</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>289.0230709656471</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>121.3202343403661</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>121.3202343403661</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882605</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947627</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040972</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,49 +5035,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192596</v>
@@ -5281,46 +5281,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,34 +5533,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699.2677182139842</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C22" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2382.47666296148</v>
+        <v>2239.024748160891</v>
       </c>
       <c r="T22" t="n">
-        <v>2162.875197984421</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U22" t="n">
-        <v>1873.799971328619</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V22" t="n">
-        <v>1619.115483122732</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W22" t="n">
-        <v>1329.698313085771</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X22" t="n">
-        <v>1101.708762187754</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y22" t="n">
-        <v>880.9161830442239</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,16 +5995,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6077,16 +6077,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2345.361232772917</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,13 +7189,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.2980548978878</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>117.1847295890516</v>
+        <v>41.54258064659072</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038577</v>
+        <v>80.44045370237458</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,13 +24888,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>106.465793928349</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>934650.9824675407</v>
+        <v>934650.9824675408</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>934650.9824675407</v>
+        <v>934650.9824675408</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214788</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="13">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651772</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062537</v>
@@ -26340,22 +26340,22 @@
         <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="M2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1014491.591111966</v>
+        <v>-1014491.591111965</v>
       </c>
       <c r="C6" t="n">
-        <v>314253.154615627</v>
+        <v>314253.1546156266</v>
       </c>
       <c r="D6" t="n">
-        <v>314253.1546156268</v>
+        <v>314253.1546156266</v>
       </c>
       <c r="E6" t="n">
-        <v>65807.27770382845</v>
+        <v>66119.91903274973</v>
       </c>
       <c r="F6" t="n">
-        <v>391219.7395111837</v>
+        <v>391532.3808401051</v>
       </c>
       <c r="G6" t="n">
-        <v>391219.7395111838</v>
+        <v>391532.3808401054</v>
       </c>
       <c r="H6" t="n">
-        <v>391219.7395111838</v>
+        <v>391532.3808401049</v>
       </c>
       <c r="I6" t="n">
-        <v>391219.7395111838</v>
+        <v>391532.3808401051</v>
       </c>
       <c r="J6" t="n">
-        <v>173688.5371139063</v>
+        <v>174001.1784428275</v>
       </c>
       <c r="K6" t="n">
-        <v>391219.7395111838</v>
+        <v>391532.3808401051</v>
       </c>
       <c r="L6" t="n">
-        <v>391219.7395111838</v>
+        <v>391532.3808401049</v>
       </c>
       <c r="M6" t="n">
-        <v>306164.711575672</v>
+        <v>306477.352904593</v>
       </c>
       <c r="N6" t="n">
-        <v>391219.7395111837</v>
+        <v>391532.3808401049</v>
       </c>
       <c r="O6" t="n">
-        <v>391219.7395111838</v>
+        <v>391532.380840105</v>
       </c>
       <c r="P6" t="n">
-        <v>391219.7395111838</v>
+        <v>391532.3808401051</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>128.0811692467076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57.41604186301942</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="U4" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>7.755643479695152</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>93.80217084441448</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>92.30923329343958</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>69.12041821276489</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>270.4601319683927</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>362.4386851003782</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>42.09238368073731</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121648</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
